--- a/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D446DCA-197D-46A5-8EEC-419A9C1374DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBCE0AA-5F21-46CB-9394-2BD7B1CEAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
+    <workbookView xWindow="3735" yWindow="1695" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'第2題-1'!$U$2:$U$9</c:f>
+              <c:f>'第2題-1'!$T$2:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6912,13 +6912,13 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1/(COMBIN(38,6)*COMBIN(8,1))</f>
         <v>4.5278683049580881E-8</v>
@@ -6992,7 +6992,7 @@
         <v>7.2518338772208741E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*COMBIN(38,6)*COMBIN(8,1)</f>
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>16016</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F6">
         <f>F2+G2</f>
         <v>0.75381291789960514</v>
@@ -7074,7 +7074,7 @@
         <v>8.8369793597824712E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9">
         <f>COMBIN(32,6)/COMBIN(38,6)</f>
         <v>0.32824944280052648</v>
@@ -7088,21 +7088,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324EB1CE-CCAB-4D88-B030-BF4B56B4E447}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AC3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="20" width="9.90625" customWidth="1"/>
-    <col min="21" max="22" width="10.36328125" customWidth="1"/>
-    <col min="23" max="23" width="13.81640625" customWidth="1"/>
-    <col min="29" max="29" width="14.36328125" customWidth="1"/>
+    <col min="18" max="19" width="9.875" customWidth="1"/>
+    <col min="20" max="21" width="10.375" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="28" max="28" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -7151,35 +7151,35 @@
       <c r="Q1" t="s">
         <v>35</v>
       </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
       <c r="X1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7231,49 +7231,45 @@
         <v>0.2</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R39" si="0">(Q2-X$2)^2</f>
-        <v>1.772853185595565E-3</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <f>COUNTIF(M$2:M$51,R2)</f>
+        <v>7</v>
       </c>
       <c r="T2">
-        <f>COUNTIF(M$2:M$51,S2)</f>
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <f>T2/50</f>
+        <f>S2/50</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="X2">
+      <c r="W2">
         <f>AVERAGE(Q2:Q39)</f>
         <v>0.15789473684210531</v>
       </c>
-      <c r="Y2">
+      <c r="X2">
         <f>MEDIAN(Q2:Q39)</f>
         <v>0.16</v>
       </c>
-      <c r="Z2">
+      <c r="Y2">
         <f>MAX(Q2:Q39)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA2">
+      <c r="Z2">
         <f>MIN(Q2:Q39)</f>
         <v>0.06</v>
       </c>
+      <c r="AA2">
+        <f>Y2-Z2</f>
+        <v>0.22000000000000003</v>
+      </c>
       <c r="AB2">
-        <f>Z2-AA2</f>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="AC2">
         <f>_xlfn.VAR.S(Q2:Q39)</f>
         <v>2.7413940256045279E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -7325,49 +7321,45 @@
         <v>0.16</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <f>COUNTIF(M$2:M$51,R3)</f>
+        <v>9</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T9" si="1">COUNTIF(M$2:M$51,S3)</f>
-        <v>9</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U9" si="2">T3/50</f>
+        <f t="shared" ref="T3:T9" si="0">S3/50</f>
         <v>0.18</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V3" t="s">
         <v>40</v>
       </c>
+      <c r="W3">
+        <f>AVERAGE(T2:T9)</f>
+        <v>0.125</v>
+      </c>
       <c r="X3">
-        <f>AVERAGE(U2:U9)</f>
-        <v>0.125</v>
+        <f>MEDIAN(T2:T9)</f>
+        <v>0.13</v>
       </c>
       <c r="Y3">
-        <f>MEDIAN(U2:U9)</f>
-        <v>0.13</v>
+        <f>MAX(T2:T9)</f>
+        <v>0.18</v>
       </c>
       <c r="Z3">
-        <f>MAX(U2:U9)</f>
-        <v>0.18</v>
+        <f>MIN(T2:T9)</f>
+        <v>0.06</v>
       </c>
       <c r="AA3">
-        <f>MIN(U2:U9)</f>
-        <v>0.06</v>
+        <f>Y3-Z3</f>
+        <v>0.12</v>
       </c>
       <c r="AB3">
-        <f>Z3-AA3</f>
-        <v>0.12</v>
-      </c>
-      <c r="AC3">
-        <f>_xlfn.VAR.S(U2:U9)</f>
+        <f>_xlfn.VAR.S(T2:T9)</f>
         <v>1.8000000000000041E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -7415,26 +7407,22 @@
         <v>12</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q39" si="3">P4/50</f>
+        <f t="shared" ref="Q4:Q39" si="1">P4/50</f>
         <v>0.24</v>
       </c>
       <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <f>COUNTIF(M$2:M$51,R4)</f>
+        <v>8</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
-        <v>6.7412742382271379E-3</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -7482,26 +7470,22 @@
         <v>10</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <f>COUNTIF(M$2:M$51,R5)</f>
+        <v>6</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
-        <v>1.772853185595565E-3</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -7549,26 +7533,22 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f>COUNTIF(M$2:M$51,R6)</f>
+        <v>4</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
-        <v>3.3518005540166254E-3</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7616,26 +7596,22 @@
         <v>4</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <f>COUNTIF(M$2:M$51,R7)</f>
+        <v>3</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
-        <v>6.0675900277008385E-3</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7683,26 +7659,22 @@
         <v>10</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <f>COUNTIF(M$2:M$51,R8)</f>
+        <v>8</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
-        <v>1.772853185595565E-3</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -7750,26 +7722,22 @@
         <v>5</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f>COUNTIF(M$2:M$51,R9)</f>
+        <v>5</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
-        <v>3.3518005540166254E-3</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7817,23 +7785,19 @@
         <v>4</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>6.0675900277008385E-3</v>
+      <c r="S10">
+        <f>SUM(S2:S9)</f>
+        <v>50</v>
       </c>
       <c r="T10">
         <f>SUM(T2:T9)</f>
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <f>SUM(U2:U9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -7881,15 +7845,11 @@
         <v>5</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>3.3518005540166254E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7937,15 +7897,11 @@
         <v>6</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>1.436011080332414E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -7993,15 +7949,11 @@
         <v>9</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>4.8864265927977602E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -8049,15 +8001,11 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>9.583379501385051E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8105,15 +8053,11 @@
         <v>7</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>3.2022160664820062E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8161,15 +8105,11 @@
         <v>8</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8217,15 +8157,11 @@
         <v>6</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>1.436011080332414E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8273,15 +8209,11 @@
         <v>11</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>3.8570637119113515E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8329,15 +8261,11 @@
         <v>10</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>1.772853185595565E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -8385,15 +8313,11 @@
         <v>7</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>3.2022160664820062E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -8441,15 +8365,11 @@
         <v>8</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8497,15 +8417,11 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -8553,15 +8469,11 @@
         <v>4</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>6.0675900277008385E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8609,15 +8521,11 @@
         <v>7</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>3.2022160664820062E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -8665,15 +8573,11 @@
         <v>11</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>3.8570637119113515E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -8721,15 +8625,11 @@
         <v>14</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>1.4909695290858721E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -8777,15 +8677,11 @@
         <v>10</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>1.772853185595565E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8833,15 +8729,11 @@
         <v>8</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -8889,15 +8781,11 @@
         <v>8</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8945,15 +8833,11 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="0"/>
-        <v>1.0425484764542928E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -9001,15 +8885,11 @@
         <v>8</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9057,15 +8937,11 @@
         <v>4</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="0"/>
-        <v>6.0675900277008385E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -9113,15 +8989,11 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="0"/>
-        <v>3.2022160664820062E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -9169,15 +9041,11 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="R34">
-        <f t="shared" si="0"/>
-        <v>4.8864265927977602E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -9225,15 +9093,11 @@
         <v>9</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="0"/>
-        <v>4.8864265927977602E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9281,15 +9145,11 @@
         <v>8</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -9337,15 +9197,11 @@
         <v>8</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="0"/>
-        <v>4.432132963988737E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9393,15 +9249,11 @@
         <v>6</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="0"/>
-        <v>1.436011080332414E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -9449,15 +9301,11 @@
         <v>10</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="0"/>
-        <v>1.772853185595565E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -9506,7 +9354,7 @@
         <v>6.0000000000000018</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -9547,7 +9395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -9588,7 +9436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -9629,7 +9477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -9670,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -9711,7 +9559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -9752,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9793,7 +9641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -9834,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -9875,7 +9723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -9916,7 +9764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -9968,17 +9816,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4F8C6-C04B-4C88-BD75-66015B4810E5}">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AA3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="13.7265625" customWidth="1"/>
-    <col min="27" max="27" width="15.1796875" customWidth="1"/>
+    <col min="21" max="21" width="13.75" customWidth="1"/>
+    <col min="27" max="27" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -10055,7 +9903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -10145,7 +9993,7 @@
         <v>1.3792318634423839E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -10235,7 +10083,7 @@
         <v>3.9999999999999959E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10298,7 +10146,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -10361,7 +10209,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -10424,7 +10272,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10487,7 +10335,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -10550,7 +10398,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -10613,7 +10461,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10673,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -10725,7 +10573,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -10777,7 +10625,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -10829,7 +10677,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -10881,7 +10729,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10933,7 +10781,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -10985,7 +10833,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11037,7 +10885,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -11089,7 +10937,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -11141,7 +10989,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -11193,7 +11041,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -11245,7 +11093,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -11297,7 +11145,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11349,7 +11197,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -11401,7 +11249,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -11453,7 +11301,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -11505,7 +11353,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -11557,7 +11405,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11609,7 +11457,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11661,7 +11509,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11713,7 +11561,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -11765,7 +11613,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -11817,7 +11665,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -11869,7 +11717,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -11921,7 +11769,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -11973,7 +11821,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -12025,7 +11873,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -12077,7 +11925,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -12129,7 +11977,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -12181,7 +12029,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -12230,7 +12078,7 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -12271,7 +12119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -12312,7 +12160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -12353,7 +12201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -12394,7 +12242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -12435,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -12476,7 +12324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -12517,7 +12365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -12558,7 +12406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -12599,7 +12447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -12640,7 +12488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -12681,7 +12529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -12722,7 +12570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -12763,7 +12611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -12804,7 +12652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -12845,7 +12693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -12886,7 +12734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -12927,7 +12775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -12968,7 +12816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -13009,7 +12857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -13050,7 +12898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -13091,7 +12939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -13132,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -13173,7 +13021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -13214,7 +13062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -13255,7 +13103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -13296,7 +13144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -13337,7 +13185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -13378,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -13419,7 +13267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -13460,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -13501,7 +13349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -13542,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -13583,7 +13431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -13624,7 +13472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -13665,7 +13513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -13706,7 +13554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -13747,7 +13595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -13788,7 +13636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -13829,7 +13677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -13870,7 +13718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -13911,7 +13759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -13952,7 +13800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -13993,7 +13841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -14034,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -14075,7 +13923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -14116,7 +13964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -14157,7 +14005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -14198,7 +14046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -14239,7 +14087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -14280,7 +14128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -14321,7 +14169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -14362,7 +14210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -14403,7 +14251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -14444,7 +14292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -14485,7 +14333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -14526,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -14567,7 +14415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -14608,7 +14456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -14649,7 +14497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -14690,7 +14538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -14742,17 +14590,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E243DFA7-D457-48F2-8F9C-FADDB29EE60F}">
   <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AA3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="27" max="27" width="14.7265625" customWidth="1"/>
+    <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -14829,7 +14677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14919,7 +14767,7 @@
         <v>2.2355618776671404E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -15009,7 +14857,7 @@
         <v>3.0628571428571526E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -15072,7 +14920,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15135,7 +14983,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15198,7 +15046,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -15261,7 +15109,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -15324,7 +15172,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -15387,7 +15235,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15447,7 +15295,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -15499,7 +15347,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -15551,7 +15399,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -15603,7 +15451,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -15655,7 +15503,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -15707,7 +15555,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -15759,7 +15607,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -15811,7 +15659,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -15863,7 +15711,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -15915,7 +15763,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -15967,7 +15815,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -16019,7 +15867,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -16071,7 +15919,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -16123,7 +15971,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -16175,7 +16023,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -16227,7 +16075,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -16279,7 +16127,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -16331,7 +16179,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -16383,7 +16231,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -16435,7 +16283,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -16487,7 +16335,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -16539,7 +16387,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -16591,7 +16439,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -16643,7 +16491,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -16695,7 +16543,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -16747,7 +16595,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -16799,7 +16647,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -16851,7 +16699,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16903,7 +16751,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -16955,7 +16803,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -17004,7 +16852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -17045,7 +16893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -17086,7 +16934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -17127,7 +16975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -17168,7 +17016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -17209,7 +17057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -17250,7 +17098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -17291,7 +17139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -17332,7 +17180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -17373,7 +17221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -17414,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -17455,7 +17303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -17496,7 +17344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -17537,7 +17385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -17578,7 +17426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -17619,7 +17467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -17660,7 +17508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -17701,7 +17549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -17742,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -17783,7 +17631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -17824,7 +17672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -17865,7 +17713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -17906,7 +17754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -17947,7 +17795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -17988,7 +17836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -18029,7 +17877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -18070,7 +17918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -18111,7 +17959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -18152,7 +18000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -18193,7 +18041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -18234,7 +18082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -18275,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -18316,7 +18164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -18357,7 +18205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -18398,7 +18246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -18439,7 +18287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -18480,7 +18328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -18521,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -18562,7 +18410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -18603,7 +18451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -18644,7 +18492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -18685,7 +18533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -18726,7 +18574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -18767,7 +18615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -18808,7 +18656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -18849,7 +18697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -18890,7 +18738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -18931,7 +18779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -18972,7 +18820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -19013,7 +18861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -19054,7 +18902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -19095,7 +18943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -19136,7 +18984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -19177,7 +19025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -19218,7 +19066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -19259,7 +19107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -19300,7 +19148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -19341,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -19382,7 +19230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -19423,7 +19271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -19464,7 +19312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -19505,7 +19353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -19546,7 +19394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -19587,7 +19435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -19628,7 +19476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -19669,7 +19517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -19710,7 +19558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -19751,7 +19599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -19792,7 +19640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -19833,7 +19681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -19874,7 +19722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -19915,7 +19763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -19956,7 +19804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -19997,7 +19845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -20038,7 +19886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -20079,7 +19927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -20120,7 +19968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -20161,7 +20009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -20202,7 +20050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -20243,7 +20091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -20284,7 +20132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -20325,7 +20173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -20366,7 +20214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -20407,7 +20255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -20448,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -20489,7 +20337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -20530,7 +20378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -20571,7 +20419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -20612,7 +20460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -20653,7 +20501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -20694,7 +20542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -20735,7 +20583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -20776,7 +20624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -20817,7 +20665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -20858,7 +20706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -20899,7 +20747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -20940,7 +20788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -20981,7 +20829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -21022,7 +20870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -21063,7 +20911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -21104,7 +20952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -21145,7 +20993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -21186,7 +21034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -21227,7 +21075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -21268,7 +21116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -21309,7 +21157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -21350,7 +21198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -21391,7 +21239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -21432,7 +21280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -21473,7 +21321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -21514,7 +21362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -21555,7 +21403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -21596,7 +21444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -21637,7 +21485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -21678,7 +21526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>27</v>
       </c>
@@ -21719,7 +21567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>27</v>
       </c>
@@ -21760,7 +21608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>27</v>
       </c>
@@ -21801,7 +21649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -21842,7 +21690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>27</v>
       </c>
@@ -21883,7 +21731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -21924,7 +21772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -21965,7 +21813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>27</v>
       </c>
@@ -22006,7 +21854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -22047,7 +21895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -22088,7 +21936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -22129,7 +21977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -22170,7 +22018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -22211,7 +22059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>27</v>
       </c>
@@ -22252,7 +22100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -22293,7 +22141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -22334,7 +22182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -22375,7 +22223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -22416,7 +22264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -22457,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -22498,7 +22346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -22539,7 +22387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -22580,7 +22428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -22621,7 +22469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -22662,7 +22510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -22703,7 +22551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -22744,7 +22592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -22785,7 +22633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -22826,7 +22674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -22867,7 +22715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -22908,7 +22756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -22949,7 +22797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -22990,7 +22838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -23031,7 +22879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>27</v>
       </c>
@@ -23072,7 +22920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>27</v>
       </c>
@@ -23113,7 +22961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>27</v>
       </c>
@@ -23154,7 +23002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>27</v>
       </c>
@@ -23195,7 +23043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -23236,7 +23084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>27</v>
       </c>
@@ -23277,7 +23125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -23318,7 +23166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>27</v>
       </c>
@@ -23359,7 +23207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>27</v>
       </c>
@@ -23400,7 +23248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>27</v>
       </c>
@@ -23441,7 +23289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -23482,7 +23330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -23523,7 +23371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>27</v>
       </c>
@@ -23564,7 +23412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -23605,7 +23453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>27</v>
       </c>
@@ -23646,7 +23494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>27</v>
       </c>
@@ -23687,7 +23535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>27</v>
       </c>
@@ -23728,7 +23576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>27</v>
       </c>
@@ -23769,7 +23617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>27</v>
       </c>
@@ -23810,7 +23658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>27</v>
       </c>
@@ -23851,7 +23699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -23892,7 +23740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>27</v>
       </c>
@@ -23933,7 +23781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -23974,7 +23822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>27</v>
       </c>
@@ -24015,7 +23863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -24056,7 +23904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>27</v>
       </c>
@@ -24097,7 +23945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -24138,7 +23986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>27</v>
       </c>
@@ -24179,7 +24027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -24220,7 +24068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>27</v>
       </c>
@@ -24261,7 +24109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>27</v>
       </c>
@@ -24302,7 +24150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>27</v>
       </c>
@@ -24343,7 +24191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>27</v>
       </c>
@@ -24384,7 +24232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -24425,7 +24273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -24466,7 +24314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -24507,7 +24355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -24548,7 +24396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>27</v>
       </c>
@@ -24589,7 +24437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>27</v>
       </c>
@@ -24630,7 +24478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -24671,7 +24519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -24712,7 +24560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>27</v>
       </c>
@@ -24753,7 +24601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>27</v>
       </c>
@@ -24794,7 +24642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -24835,7 +24683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -24876,7 +24724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>27</v>
       </c>
@@ -24917,7 +24765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>27</v>
       </c>
@@ -24958,7 +24806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -24999,7 +24847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>27</v>
       </c>
@@ -25040,7 +24888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>27</v>
       </c>
@@ -25081,7 +24929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -25122,7 +24970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -25163,7 +25011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -25204,7 +25052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -25245,7 +25093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -25286,7 +25134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -25327,7 +25175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -25368,7 +25216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -25409,7 +25257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -25450,7 +25298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -25491,7 +25339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -25532,7 +25380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>27</v>
       </c>
@@ -25573,7 +25421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -25614,7 +25462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -25655,7 +25503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -25696,7 +25544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -25737,7 +25585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -25778,7 +25626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -25819,7 +25667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -25860,7 +25708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -25901,7 +25749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -25942,7 +25790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -25983,7 +25831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -26024,7 +25872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -26065,7 +25913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -26106,7 +25954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -26147,7 +25995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -26188,7 +26036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -26229,7 +26077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -26270,7 +26118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -26311,7 +26159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -26352,7 +26200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -26393,7 +26241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>27</v>
       </c>
@@ -26434,7 +26282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>27</v>
       </c>
@@ -26475,7 +26323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -26516,7 +26364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -26557,7 +26405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>27</v>
       </c>
@@ -26598,7 +26446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -26639,7 +26487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>27</v>
       </c>
@@ -26680,7 +26528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -26721,7 +26569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>27</v>
       </c>
@@ -26762,7 +26610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>27</v>
       </c>
@@ -26803,7 +26651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>27</v>
       </c>
@@ -26844,7 +26692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>27</v>
       </c>
@@ -26885,7 +26733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>27</v>
       </c>
@@ -26926,7 +26774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>27</v>
       </c>
@@ -26967,7 +26815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>27</v>
       </c>
@@ -27008,7 +26856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>27</v>
       </c>
@@ -27049,7 +26897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -27090,7 +26938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>27</v>
       </c>
@@ -27131,7 +26979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>27</v>
       </c>
@@ -27172,7 +27020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>27</v>
       </c>
@@ -27213,7 +27061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>27</v>
       </c>
@@ -27254,7 +27102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -27295,7 +27143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -27336,7 +27184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>27</v>
       </c>
@@ -27377,7 +27225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>27</v>
       </c>
@@ -27418,7 +27266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -27459,7 +27307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -27500,7 +27348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>27</v>
       </c>
@@ -27541,7 +27389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -27582,7 +27430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -27623,7 +27471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>27</v>
       </c>
@@ -27664,7 +27512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -27705,7 +27553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -27746,7 +27594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -27787,7 +27635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -27828,7 +27676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -27869,7 +27717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -27910,7 +27758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -27951,7 +27799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -27992,7 +27840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -28033,7 +27881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -28074,7 +27922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -28115,7 +27963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -28156,7 +28004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -28197,7 +28045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -28238,7 +28086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>27</v>
       </c>
@@ -28279,7 +28127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>27</v>
       </c>
@@ -28320,7 +28168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>27</v>
       </c>
@@ -28361,7 +28209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>27</v>
       </c>
@@ -28402,7 +28250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>27</v>
       </c>
@@ -28443,7 +28291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>27</v>
       </c>
@@ -28484,7 +28332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -28525,7 +28373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>27</v>
       </c>
@@ -28566,7 +28414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>27</v>
       </c>
@@ -28607,7 +28455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>27</v>
       </c>
@@ -28648,7 +28496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -28689,7 +28537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>27</v>
       </c>
@@ -28730,7 +28578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>27</v>
       </c>
@@ -28771,7 +28619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>27</v>
       </c>
@@ -28812,7 +28660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -28853,7 +28701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -28894,7 +28742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>27</v>
       </c>
@@ -28935,7 +28783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -28976,7 +28824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>27</v>
       </c>
@@ -29017,7 +28865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>27</v>
       </c>
@@ -29058,7 +28906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>27</v>
       </c>
@@ -29099,7 +28947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>27</v>
       </c>
@@ -29140,7 +28988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>27</v>
       </c>
@@ -29181,7 +29029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>27</v>
       </c>
@@ -29222,7 +29070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>27</v>
       </c>
@@ -29263,7 +29111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>27</v>
       </c>
@@ -29304,7 +29152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -29345,7 +29193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>27</v>
       </c>
@@ -29386,7 +29234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>27</v>
       </c>
@@ -29427,7 +29275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -29468,7 +29316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>27</v>
       </c>
@@ -29509,7 +29357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>27</v>
       </c>
@@ -29550,7 +29398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>27</v>
       </c>
@@ -29591,7 +29439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>27</v>
       </c>
@@ -29632,7 +29480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -29673,7 +29521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -29714,7 +29562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -29755,7 +29603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -29796,7 +29644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>27</v>
       </c>
@@ -29837,7 +29685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>27</v>
       </c>
@@ -29878,7 +29726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>27</v>
       </c>
@@ -29919,7 +29767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>27</v>
       </c>
@@ -29960,7 +29808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -30001,7 +29849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>27</v>
       </c>
@@ -30042,7 +29890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -30083,7 +29931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>27</v>
       </c>
@@ -30124,7 +29972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>27</v>
       </c>
@@ -30165,7 +30013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -30206,7 +30054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -30247,7 +30095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>27</v>
       </c>
@@ -30288,7 +30136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>27</v>
       </c>
@@ -30329,7 +30177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>27</v>
       </c>
@@ -30370,7 +30218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -30411,7 +30259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>27</v>
       </c>
@@ -30452,7 +30300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>27</v>
       </c>
@@ -30493,7 +30341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>27</v>
       </c>
@@ -30534,7 +30382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -30575,7 +30423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -30616,7 +30464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>27</v>
       </c>
@@ -30657,7 +30505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>27</v>
       </c>
@@ -30698,7 +30546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>27</v>
       </c>
@@ -30739,7 +30587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>27</v>
       </c>
@@ -30780,7 +30628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>27</v>
       </c>
@@ -30821,7 +30669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>27</v>
       </c>
@@ -30862,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>27</v>
       </c>
@@ -30903,7 +30751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -30944,7 +30792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>27</v>
       </c>
@@ -30985,7 +30833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>27</v>
       </c>
@@ -31026,7 +30874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>27</v>
       </c>
@@ -31067,7 +30915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>27</v>
       </c>
@@ -31108,7 +30956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>27</v>
       </c>
@@ -31149,7 +30997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>27</v>
       </c>
@@ -31190,7 +31038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>27</v>
       </c>
@@ -31231,7 +31079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>27</v>
       </c>
@@ -31272,7 +31120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>27</v>
       </c>
@@ -31313,7 +31161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>27</v>
       </c>
@@ -31354,7 +31202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>27</v>
       </c>
@@ -31395,7 +31243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>27</v>
       </c>
@@ -31436,7 +31284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>27</v>
       </c>
@@ -31477,7 +31325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>27</v>
       </c>
@@ -31518,7 +31366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>27</v>
       </c>
@@ -31559,7 +31407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>27</v>
       </c>
@@ -31600,7 +31448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>27</v>
       </c>
@@ -31641,7 +31489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -31682,7 +31530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -31723,7 +31571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>27</v>
       </c>
@@ -31764,7 +31612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>27</v>
       </c>
@@ -31805,7 +31653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>27</v>
       </c>
@@ -31846,7 +31694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>27</v>
       </c>
@@ -31887,7 +31735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -31928,7 +31776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>27</v>
       </c>
@@ -31969,7 +31817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>27</v>
       </c>
@@ -32010,7 +31858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -32051,7 +31899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>27</v>
       </c>
@@ -32092,7 +31940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -32133,7 +31981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -32174,7 +32022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>27</v>
       </c>
@@ -32215,7 +32063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -32256,7 +32104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>27</v>
       </c>
@@ -32297,7 +32145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>27</v>
       </c>
@@ -32338,7 +32186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>27</v>
       </c>
@@ -32379,7 +32227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -32420,7 +32268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>27</v>
       </c>
@@ -32461,7 +32309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -32502,7 +32350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>27</v>
       </c>
@@ -32543,7 +32391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -32584,7 +32432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>27</v>
       </c>
@@ -32625,7 +32473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>27</v>
       </c>
@@ -32666,7 +32514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>27</v>
       </c>
@@ -32707,7 +32555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>27</v>
       </c>
@@ -32748,7 +32596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>27</v>
       </c>
@@ -32789,7 +32637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>27</v>
       </c>
@@ -32830,7 +32678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>27</v>
       </c>
@@ -32871,7 +32719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>27</v>
       </c>
@@ -32912,7 +32760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>27</v>
       </c>
@@ -32953,7 +32801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>27</v>
       </c>
@@ -32994,7 +32842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>27</v>
       </c>
@@ -33035,7 +32883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>27</v>
       </c>
@@ -33076,7 +32924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>27</v>
       </c>
@@ -33117,7 +32965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>27</v>
       </c>
@@ -33158,7 +33006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>27</v>
       </c>
@@ -33199,7 +33047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>27</v>
       </c>
@@ -33240,7 +33088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>27</v>
       </c>
@@ -33281,7 +33129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>27</v>
       </c>
@@ -33322,7 +33170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>27</v>
       </c>
@@ -33363,7 +33211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>27</v>
       </c>
@@ -33404,7 +33252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>27</v>
       </c>
@@ -33445,7 +33293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>27</v>
       </c>
@@ -33486,7 +33334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>27</v>
       </c>
@@ -33527,7 +33375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>27</v>
       </c>
@@ -33568,7 +33416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>27</v>
       </c>
@@ -33609,7 +33457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -33650,7 +33498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>27</v>
       </c>
@@ -33691,7 +33539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>27</v>
       </c>
@@ -33732,7 +33580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>27</v>
       </c>
@@ -33773,7 +33621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>27</v>
       </c>
@@ -33814,7 +33662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>27</v>
       </c>
@@ -33855,7 +33703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>27</v>
       </c>
@@ -33896,7 +33744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>27</v>
       </c>
@@ -33937,7 +33785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>27</v>
       </c>
@@ -33978,7 +33826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>27</v>
       </c>
@@ -34019,7 +33867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>27</v>
       </c>
@@ -34060,7 +33908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>27</v>
       </c>
@@ -34101,7 +33949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>27</v>
       </c>
@@ -34142,7 +33990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>27</v>
       </c>
@@ -34183,7 +34031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>27</v>
       </c>
@@ -34224,7 +34072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>27</v>
       </c>
@@ -34265,7 +34113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>27</v>
       </c>
@@ -34306,7 +34154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>27</v>
       </c>
@@ -34347,7 +34195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>27</v>
       </c>
@@ -34388,7 +34236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>27</v>
       </c>
@@ -34429,7 +34277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>27</v>
       </c>
@@ -34470,7 +34318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>27</v>
       </c>
@@ -34511,7 +34359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>27</v>
       </c>
@@ -34552,7 +34400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>27</v>
       </c>
@@ -34593,7 +34441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>27</v>
       </c>
@@ -34634,7 +34482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>27</v>
       </c>
@@ -34675,7 +34523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>27</v>
       </c>
@@ -34716,7 +34564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>27</v>
       </c>
@@ -34757,7 +34605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>27</v>
       </c>
@@ -34798,7 +34646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>27</v>
       </c>
@@ -34839,7 +34687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -34880,7 +34728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>27</v>
       </c>
@@ -34921,7 +34769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -34962,7 +34810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>27</v>
       </c>
@@ -35003,7 +34851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>27</v>
       </c>
@@ -35044,7 +34892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>27</v>
       </c>
@@ -35085,7 +34933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>27</v>
       </c>
@@ -35126,7 +34974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>27</v>
       </c>
@@ -35167,7 +35015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>27</v>
       </c>
@@ -35208,7 +35056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>27</v>
       </c>
@@ -35249,7 +35097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>27</v>
       </c>
@@ -35290,7 +35138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>27</v>
       </c>
@@ -35331,7 +35179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>27</v>
       </c>
@@ -35372,7 +35220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>27</v>
       </c>
@@ -35413,7 +35261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>27</v>
       </c>
@@ -35454,7 +35302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>27</v>
       </c>
@@ -35495,7 +35343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>27</v>
       </c>
@@ -35536,7 +35384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>27</v>
       </c>
@@ -35577,7 +35425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>27</v>
       </c>
@@ -35618,7 +35466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>27</v>
       </c>
@@ -35659,7 +35507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>27</v>
       </c>
@@ -35700,7 +35548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>27</v>
       </c>
@@ -35741,7 +35589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>27</v>
       </c>
@@ -35782,7 +35630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>27</v>
       </c>
@@ -35823,7 +35671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>27</v>
       </c>
@@ -35864,7 +35712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>27</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBCE0AA-5F21-46CB-9394-2BD7B1CEAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E653AB5-3797-4F9F-B44A-AA6881FD2694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1695" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
+    <workbookView minimized="1" xWindow="4500" yWindow="4140" windowWidth="19200" windowHeight="11260" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題" sheetId="1" r:id="rId1"/>
@@ -6912,13 +6912,13 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>1/(COMBIN(38,6)*COMBIN(8,1))</f>
         <v>4.5278683049580881E-8</v>
@@ -6992,7 +6992,7 @@
         <v>7.2518338772208741E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>A2*COMBIN(38,6)*COMBIN(8,1)</f>
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>16016</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F6">
         <f>F2+G2</f>
         <v>0.75381291789960514</v>
@@ -7074,7 +7074,7 @@
         <v>8.8369793597824712E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F9">
         <f>COMBIN(32,6)/COMBIN(38,6)</f>
         <v>0.32824944280052648</v>
@@ -7090,19 +7090,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324EB1CE-CCAB-4D88-B030-BF4B56B4E447}">
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="18" max="19" width="9.875" customWidth="1"/>
-    <col min="20" max="21" width="10.375" customWidth="1"/>
-    <col min="22" max="22" width="13.875" customWidth="1"/>
-    <col min="28" max="28" width="14.375" customWidth="1"/>
+    <col min="18" max="19" width="9.90625" customWidth="1"/>
+    <col min="20" max="21" width="10.36328125" customWidth="1"/>
+    <col min="22" max="22" width="13.90625" customWidth="1"/>
+    <col min="28" max="28" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f>COUNTIF(M$2:M$51,R2)</f>
+        <f t="shared" ref="S2:S9" si="0">COUNTIF(M$2:M$51,R2)</f>
         <v>7</v>
       </c>
       <c r="T2">
@@ -7269,7 +7269,7 @@
         <v>2.7413940256045279E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -7324,11 +7324,11 @@
         <v>2</v>
       </c>
       <c r="S3">
-        <f>COUNTIF(M$2:M$51,R3)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T9" si="0">S3/50</f>
+        <f t="shared" ref="T3:T9" si="1">S3/50</f>
         <v>0.18</v>
       </c>
       <c r="V3" t="s">
@@ -7359,7 +7359,7 @@
         <v>1.8000000000000041E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -7407,22 +7407,22 @@
         <v>12</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q39" si="1">P4/50</f>
+        <f t="shared" ref="Q4:Q39" si="2">P4/50</f>
         <v>0.24</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4">
-        <f>COUNTIF(M$2:M$51,R4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -7470,22 +7470,22 @@
         <v>10</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5">
-        <f>COUNTIF(M$2:M$51,R5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -7533,22 +7533,22 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6">
-        <f>COUNTIF(M$2:M$51,R6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7596,22 +7596,22 @@
         <v>4</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7">
-        <f>COUNTIF(M$2:M$51,R7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7659,22 +7659,22 @@
         <v>10</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8">
-        <f>COUNTIF(M$2:M$51,R8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -7722,22 +7722,22 @@
         <v>5</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="R9">
-        <v>8</v>
-      </c>
-      <c r="S9">
-        <f>COUNTIF(M$2:M$51,R9)</f>
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>4</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="S10">
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -7845,11 +7845,11 @@
         <v>5</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7897,11 +7897,11 @@
         <v>6</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -7949,11 +7949,11 @@
         <v>9</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -8001,11 +8001,11 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8053,11 +8053,11 @@
         <v>7</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8105,11 +8105,11 @@
         <v>8</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8157,11 +8157,11 @@
         <v>6</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8209,11 +8209,11 @@
         <v>11</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8261,11 +8261,11 @@
         <v>10</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -8313,11 +8313,11 @@
         <v>7</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -8365,11 +8365,11 @@
         <v>8</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8417,11 +8417,11 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -8469,11 +8469,11 @@
         <v>4</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8521,11 +8521,11 @@
         <v>7</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -8573,11 +8573,11 @@
         <v>11</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -8625,11 +8625,11 @@
         <v>14</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -8677,11 +8677,11 @@
         <v>10</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8729,11 +8729,11 @@
         <v>8</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -8781,11 +8781,11 @@
         <v>8</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8833,11 +8833,11 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -8885,11 +8885,11 @@
         <v>8</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -8937,11 +8937,11 @@
         <v>4</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -8989,11 +8989,11 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -9041,11 +9041,11 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -9093,11 +9093,11 @@
         <v>9</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9145,11 +9145,11 @@
         <v>8</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -9197,11 +9197,11 @@
         <v>8</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9249,11 +9249,11 @@
         <v>6</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -9301,11 +9301,11 @@
         <v>10</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>6.0000000000000018</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -9820,13 +9820,13 @@
       <selection activeCell="T2" sqref="T2:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="21" max="21" width="13.75" customWidth="1"/>
-    <col min="27" max="27" width="15.125" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" customWidth="1"/>
+    <col min="27" max="27" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>1.3792318634423839E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>3.9999999999999959E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -14590,17 +14590,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E243DFA7-D457-48F2-8F9C-FADDB29EE60F}">
   <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="27" max="27" width="14.75" customWidth="1"/>
+    <col min="27" max="27" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>2.2355618776671404E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>3.0628571428571526E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -20091,7 +20091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -21444,7 +21444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>27</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>27</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>27</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>27</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>27</v>
       </c>
@@ -21854,7 +21854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>27</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -22387,7 +22387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -22428,7 +22428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -22510,7 +22510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -22633,7 +22633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>27</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>27</v>
       </c>
@@ -22961,7 +22961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>27</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>27</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>27</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -23166,7 +23166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>27</v>
       </c>
@@ -23207,7 +23207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>27</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>27</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>27</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>27</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>27</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>27</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>27</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>27</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>27</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -23740,7 +23740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>27</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>27</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>27</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>27</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -24068,7 +24068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>27</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>27</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>27</v>
       </c>
@@ -24191,7 +24191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>27</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -24273,7 +24273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -24396,7 +24396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>27</v>
       </c>
@@ -24437,7 +24437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>27</v>
       </c>
@@ -24478,7 +24478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -24560,7 +24560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>27</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>27</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>27</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>27</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>27</v>
       </c>
@@ -24888,7 +24888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>27</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -25093,7 +25093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -25134,7 +25134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -25380,7 +25380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>27</v>
       </c>
@@ -25421,7 +25421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -25503,7 +25503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -25544,7 +25544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -25790,7 +25790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -25831,7 +25831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -25954,7 +25954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>27</v>
       </c>
@@ -26282,7 +26282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>27</v>
       </c>
@@ -26323,7 +26323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>27</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>27</v>
       </c>
@@ -26528,7 +26528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>27</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>27</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>27</v>
       </c>
@@ -26692,7 +26692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>27</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>27</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>27</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>27</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>27</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -26938,7 +26938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>27</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>27</v>
       </c>
@@ -27020,7 +27020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>27</v>
       </c>
@@ -27061,7 +27061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>27</v>
       </c>
@@ -27102,7 +27102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>27</v>
       </c>
@@ -27225,7 +27225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>27</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -27307,7 +27307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -27348,7 +27348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>27</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>27</v>
       </c>
@@ -27512,7 +27512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -27635,7 +27635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -27717,7 +27717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -27799,7 +27799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -27881,7 +27881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -27922,7 +27922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -28004,7 +28004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -28086,7 +28086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>27</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>27</v>
       </c>
@@ -28168,7 +28168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>27</v>
       </c>
@@ -28209,7 +28209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>27</v>
       </c>
@@ -28250,7 +28250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>27</v>
       </c>
@@ -28291,7 +28291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>27</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>27</v>
       </c>
@@ -28414,7 +28414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>27</v>
       </c>
@@ -28455,7 +28455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>27</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -28537,7 +28537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>27</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>27</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>27</v>
       </c>
@@ -28660,7 +28660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -28701,7 +28701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>27</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -28824,7 +28824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>27</v>
       </c>
@@ -28865,7 +28865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>27</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>27</v>
       </c>
@@ -28947,7 +28947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>27</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>27</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>27</v>
       </c>
@@ -29070,7 +29070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>27</v>
       </c>
@@ -29111,7 +29111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>27</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -29193,7 +29193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>27</v>
       </c>
@@ -29234,7 +29234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>27</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>27</v>
       </c>
@@ -29357,7 +29357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>27</v>
       </c>
@@ -29398,7 +29398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>27</v>
       </c>
@@ -29439,7 +29439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>27</v>
       </c>
@@ -29480,7 +29480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -29603,7 +29603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -29644,7 +29644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>27</v>
       </c>
@@ -29685,7 +29685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>27</v>
       </c>
@@ -29726,7 +29726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>27</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>27</v>
       </c>
@@ -29808,7 +29808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -29849,7 +29849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>27</v>
       </c>
@@ -29890,7 +29890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>27</v>
       </c>
@@ -29972,7 +29972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>27</v>
       </c>
@@ -30013,7 +30013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -30054,7 +30054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>27</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>27</v>
       </c>
@@ -30177,7 +30177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>27</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>27</v>
       </c>
@@ -30300,7 +30300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>27</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>27</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -30464,7 +30464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>27</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>27</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>27</v>
       </c>
@@ -30587,7 +30587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>27</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>27</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>27</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>27</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>27</v>
       </c>
@@ -30833,7 +30833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>27</v>
       </c>
@@ -30874,7 +30874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>27</v>
       </c>
@@ -30915,7 +30915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>27</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>27</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>27</v>
       </c>
@@ -31038,7 +31038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>27</v>
       </c>
@@ -31079,7 +31079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>27</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>27</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>27</v>
       </c>
@@ -31202,7 +31202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>27</v>
       </c>
@@ -31243,7 +31243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>27</v>
       </c>
@@ -31284,7 +31284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>27</v>
       </c>
@@ -31325,7 +31325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>27</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>27</v>
       </c>
@@ -31407,7 +31407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>27</v>
       </c>
@@ -31448,7 +31448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>27</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -31530,7 +31530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -31571,7 +31571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>27</v>
       </c>
@@ -31612,7 +31612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>27</v>
       </c>
@@ -31653,7 +31653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>27</v>
       </c>
@@ -31694,7 +31694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>27</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -31776,7 +31776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>27</v>
       </c>
@@ -31817,7 +31817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>27</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -31899,7 +31899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>27</v>
       </c>
@@ -31940,7 +31940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -31981,7 +31981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -32022,7 +32022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>27</v>
       </c>
@@ -32063,7 +32063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -32104,7 +32104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>27</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>27</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>27</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>27</v>
       </c>
@@ -32309,7 +32309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -32350,7 +32350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>27</v>
       </c>
@@ -32391,7 +32391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>27</v>
       </c>
@@ -32473,7 +32473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>27</v>
       </c>
@@ -32514,7 +32514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>27</v>
       </c>
@@ -32555,7 +32555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>27</v>
       </c>
@@ -32596,7 +32596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>27</v>
       </c>
@@ -32637,7 +32637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>27</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>27</v>
       </c>
@@ -32719,7 +32719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>27</v>
       </c>
@@ -32760,7 +32760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>27</v>
       </c>
@@ -32801,7 +32801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>27</v>
       </c>
@@ -32842,7 +32842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>27</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>27</v>
       </c>
@@ -32924,7 +32924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>27</v>
       </c>
@@ -32965,7 +32965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>27</v>
       </c>
@@ -33006,7 +33006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>27</v>
       </c>
@@ -33047,7 +33047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>27</v>
       </c>
@@ -33088,7 +33088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>27</v>
       </c>
@@ -33129,7 +33129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>27</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>27</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>27</v>
       </c>
@@ -33252,7 +33252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>27</v>
       </c>
@@ -33293,7 +33293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>27</v>
       </c>
@@ -33334,7 +33334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>27</v>
       </c>
@@ -33375,7 +33375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>27</v>
       </c>
@@ -33416,7 +33416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>27</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -33498,7 +33498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>27</v>
       </c>
@@ -33539,7 +33539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>27</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>27</v>
       </c>
@@ -33621,7 +33621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>27</v>
       </c>
@@ -33662,7 +33662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>27</v>
       </c>
@@ -33703,7 +33703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>27</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>27</v>
       </c>
@@ -33785,7 +33785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>27</v>
       </c>
@@ -33826,7 +33826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>27</v>
       </c>
@@ -33867,7 +33867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>27</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>27</v>
       </c>
@@ -33949,7 +33949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>27</v>
       </c>
@@ -33990,7 +33990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>27</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>27</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>27</v>
       </c>
@@ -34113,7 +34113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>27</v>
       </c>
@@ -34154,7 +34154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>27</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>27</v>
       </c>
@@ -34236,7 +34236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>27</v>
       </c>
@@ -34277,7 +34277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>27</v>
       </c>
@@ -34318,7 +34318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>27</v>
       </c>
@@ -34359,7 +34359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>27</v>
       </c>
@@ -34400,7 +34400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>27</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>27</v>
       </c>
@@ -34482,7 +34482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>27</v>
       </c>
@@ -34523,7 +34523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>27</v>
       </c>
@@ -34564,7 +34564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>27</v>
       </c>
@@ -34605,7 +34605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>27</v>
       </c>
@@ -34646,7 +34646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>27</v>
       </c>
@@ -34687,7 +34687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -34728,7 +34728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>27</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -34810,7 +34810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>27</v>
       </c>
@@ -34851,7 +34851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>27</v>
       </c>
@@ -34892,7 +34892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>27</v>
       </c>
@@ -34933,7 +34933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>27</v>
       </c>
@@ -34974,7 +34974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>27</v>
       </c>
@@ -35015,7 +35015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>27</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>27</v>
       </c>
@@ -35097,7 +35097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>27</v>
       </c>
@@ -35138,7 +35138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>27</v>
       </c>
@@ -35179,7 +35179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>27</v>
       </c>
@@ -35220,7 +35220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>27</v>
       </c>
@@ -35261,7 +35261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>27</v>
       </c>
@@ -35302,7 +35302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>27</v>
       </c>
@@ -35343,7 +35343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>27</v>
       </c>
@@ -35384,7 +35384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>27</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>27</v>
       </c>
@@ -35466,7 +35466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>27</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>27</v>
       </c>
@@ -35548,7 +35548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>27</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>27</v>
       </c>
@@ -35630,7 +35630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>27</v>
       </c>
@@ -35671,7 +35671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>27</v>
       </c>
@@ -35712,7 +35712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>27</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E653AB5-3797-4F9F-B44A-AA6881FD2694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1085D085-76F7-44CC-822A-2E22C03543FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4500" yWindow="4140" windowWidth="19200" windowHeight="11260" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題" sheetId="1" r:id="rId1"/>
@@ -6912,13 +6912,13 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1/(COMBIN(38,6)*COMBIN(8,1))</f>
         <v>4.5278683049580881E-8</v>
@@ -6992,7 +6992,7 @@
         <v>7.2518338772208741E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*COMBIN(38,6)*COMBIN(8,1)</f>
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>16016</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F6">
         <f>F2+G2</f>
         <v>0.75381291789960514</v>
@@ -7074,7 +7074,7 @@
         <v>8.8369793597824712E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9">
         <f>COMBIN(32,6)/COMBIN(38,6)</f>
         <v>0.32824944280052648</v>
@@ -7091,18 +7091,18 @@
   <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T9"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="19" width="9.90625" customWidth="1"/>
-    <col min="20" max="21" width="10.36328125" customWidth="1"/>
-    <col min="22" max="22" width="13.90625" customWidth="1"/>
-    <col min="28" max="28" width="14.36328125" customWidth="1"/>
+    <col min="18" max="19" width="9.875" customWidth="1"/>
+    <col min="20" max="21" width="10.375" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="28" max="28" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>2.7413940256045279E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1.8000000000000041E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -7484,8 +7484,16 @@
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="W5">
+        <f>W2*50</f>
+        <v>7.8947368421052655</v>
+      </c>
+      <c r="AB5">
+        <f>50^2*AB2</f>
+        <v>6.8534850640113198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -7548,7 +7556,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7611,7 +7619,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7674,7 +7682,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -7737,7 +7745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7797,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -7849,7 +7857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7901,7 +7909,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -7953,7 +7961,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -8005,7 +8013,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8057,7 +8065,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8109,7 +8117,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -8213,7 +8221,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -8317,7 +8325,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -8369,7 +8377,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8421,7 +8429,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -8473,7 +8481,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8525,7 +8533,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -8577,7 +8585,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -8629,7 +8637,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8733,7 +8741,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -8785,7 +8793,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -8837,7 +8845,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -8889,7 +8897,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -8941,7 +8949,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -8993,7 +9001,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -9045,7 +9053,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -9097,7 +9105,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9149,7 +9157,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -9201,7 +9209,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9253,7 +9261,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -9305,7 +9313,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -9354,7 +9362,7 @@
         <v>6.0000000000000018</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -9395,7 +9403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -9436,7 +9444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -9477,7 +9485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -9518,7 +9526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -9559,7 +9567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -9600,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9641,7 +9649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -9682,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -9723,7 +9731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -9817,16 +9825,16 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T9"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="13.7265625" customWidth="1"/>
-    <col min="27" max="27" width="15.08984375" customWidth="1"/>
+    <col min="21" max="21" width="13.75" customWidth="1"/>
+    <col min="27" max="27" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -9903,7 +9911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9993,7 +10001,7 @@
         <v>1.3792318634423839E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -10083,7 +10091,7 @@
         <v>3.9999999999999959E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10146,7 +10154,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -10208,8 +10216,16 @@
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V5">
+        <f>V2*100</f>
+        <v>15.789473684210527</v>
+      </c>
+      <c r="AA5">
+        <f>100^2*AA2</f>
+        <v>13.792318634423838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -10272,7 +10288,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -10335,7 +10351,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -10398,7 +10414,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -10461,7 +10477,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10521,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -10573,7 +10589,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -10625,7 +10641,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -10677,7 +10693,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -10729,7 +10745,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10781,7 +10797,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -10833,7 +10849,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -10885,7 +10901,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -10937,7 +10953,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -10989,7 +11005,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -11041,7 +11057,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -11093,7 +11109,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -11145,7 +11161,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11197,7 +11213,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -11249,7 +11265,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -11301,7 +11317,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -11353,7 +11369,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -11405,7 +11421,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11457,7 +11473,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11509,7 +11525,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11561,7 +11577,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -11613,7 +11629,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -11665,7 +11681,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -11717,7 +11733,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -11769,7 +11785,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -11821,7 +11837,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -11873,7 +11889,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -11925,7 +11941,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -11977,7 +11993,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -12029,7 +12045,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -12078,7 +12094,7 @@
         <v>6.0000000000000009</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -12119,7 +12135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -12160,7 +12176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -12201,7 +12217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -12242,7 +12258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -12283,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -12324,7 +12340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -12365,7 +12381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -12406,7 +12422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -12447,7 +12463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -12488,7 +12504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -12529,7 +12545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -12570,7 +12586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -12611,7 +12627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -12652,7 +12668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -12693,7 +12709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -12734,7 +12750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -12775,7 +12791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -12816,7 +12832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -12857,7 +12873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -12898,7 +12914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -12939,7 +12955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -12980,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -13021,7 +13037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -13062,7 +13078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -13103,7 +13119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -13144,7 +13160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -13185,7 +13201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -13226,7 +13242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -13267,7 +13283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -13308,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -13349,7 +13365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -13390,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -13431,7 +13447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -13472,7 +13488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -13513,7 +13529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -13554,7 +13570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -13595,7 +13611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -13636,7 +13652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -13677,7 +13693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -13718,7 +13734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -13759,7 +13775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -13800,7 +13816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -13841,7 +13857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -13882,7 +13898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -13923,7 +13939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -13964,7 +13980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -14005,7 +14021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -14046,7 +14062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -14087,7 +14103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -14128,7 +14144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -14169,7 +14185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -14210,7 +14226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -14251,7 +14267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -14292,7 +14308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -14333,7 +14349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -14374,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -14415,7 +14431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -14456,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -14497,7 +14513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -14538,7 +14554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -14591,16 +14607,16 @@
   <dimension ref="A1:AA501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="27" max="27" width="14.7265625" customWidth="1"/>
+    <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -14677,7 +14693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14767,7 +14783,7 @@
         <v>2.2355618776671404E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -14857,7 +14873,7 @@
         <v>3.0628571428571526E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -14920,7 +14936,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -14982,8 +14998,16 @@
         <f t="shared" si="3"/>
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V5">
+        <f>V2*500</f>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="AA5">
+        <f>500^2*AA2</f>
+        <v>55.889046941678508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15046,7 +15070,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -15109,7 +15133,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -15172,7 +15196,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -15235,7 +15259,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15295,7 +15319,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -15347,7 +15371,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -15399,7 +15423,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -15451,7 +15475,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -15503,7 +15527,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -15555,7 +15579,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -15607,7 +15631,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -15659,7 +15683,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -15711,7 +15735,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -15763,7 +15787,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -15815,7 +15839,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -15867,7 +15891,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -15919,7 +15943,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -15971,7 +15995,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -16023,7 +16047,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -16075,7 +16099,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -16127,7 +16151,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -16179,7 +16203,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -16231,7 +16255,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -16283,7 +16307,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -16335,7 +16359,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -16387,7 +16411,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -16439,7 +16463,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -16491,7 +16515,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -16543,7 +16567,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -16595,7 +16619,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -16647,7 +16671,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -16699,7 +16723,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16751,7 +16775,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -16803,7 +16827,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -16852,7 +16876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -16893,7 +16917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -16934,7 +16958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -16975,7 +16999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -17016,7 +17040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -17057,7 +17081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -17098,7 +17122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -17139,7 +17163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -17180,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -17221,7 +17245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -17262,7 +17286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -17303,7 +17327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -17344,7 +17368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -17385,7 +17409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -17426,7 +17450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -17467,7 +17491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -17508,7 +17532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -17549,7 +17573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -17590,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -17631,7 +17655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -17672,7 +17696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -17713,7 +17737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -17754,7 +17778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -17795,7 +17819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -17836,7 +17860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -17877,7 +17901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -17918,7 +17942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -17959,7 +17983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -18000,7 +18024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -18041,7 +18065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -18082,7 +18106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -18123,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -18164,7 +18188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -18205,7 +18229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -18246,7 +18270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -18287,7 +18311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -18328,7 +18352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -18369,7 +18393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -18410,7 +18434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -18451,7 +18475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -18492,7 +18516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -18533,7 +18557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -18574,7 +18598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -18615,7 +18639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -18656,7 +18680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -18697,7 +18721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -18738,7 +18762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -18779,7 +18803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -18820,7 +18844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -18861,7 +18885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -18902,7 +18926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -18943,7 +18967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -18984,7 +19008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -19025,7 +19049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -19066,7 +19090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -19107,7 +19131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -19148,7 +19172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -19189,7 +19213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -19230,7 +19254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -19271,7 +19295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -19312,7 +19336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -19353,7 +19377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -19394,7 +19418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -19435,7 +19459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -19476,7 +19500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -19517,7 +19541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -19558,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -19599,7 +19623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -19640,7 +19664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -19681,7 +19705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -19722,7 +19746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -19763,7 +19787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -19804,7 +19828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -19845,7 +19869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -19886,7 +19910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -19927,7 +19951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -19968,7 +19992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -20009,7 +20033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -20050,7 +20074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -20091,7 +20115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -20132,7 +20156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -20173,7 +20197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -20214,7 +20238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -20255,7 +20279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -20296,7 +20320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -20337,7 +20361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -20378,7 +20402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -20419,7 +20443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -20460,7 +20484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -20501,7 +20525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -20542,7 +20566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -20583,7 +20607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -20624,7 +20648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -20665,7 +20689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -20706,7 +20730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -20747,7 +20771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -20788,7 +20812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -20829,7 +20853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -20870,7 +20894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -20911,7 +20935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -20952,7 +20976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -20993,7 +21017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -21034,7 +21058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -21075,7 +21099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -21116,7 +21140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -21157,7 +21181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -21198,7 +21222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -21239,7 +21263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -21280,7 +21304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -21321,7 +21345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -21362,7 +21386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -21403,7 +21427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -21444,7 +21468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -21485,7 +21509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -21526,7 +21550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>27</v>
       </c>
@@ -21567,7 +21591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>27</v>
       </c>
@@ -21608,7 +21632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>27</v>
       </c>
@@ -21649,7 +21673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -21690,7 +21714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>27</v>
       </c>
@@ -21731,7 +21755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -21772,7 +21796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -21813,7 +21837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>27</v>
       </c>
@@ -21854,7 +21878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -21895,7 +21919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -21936,7 +21960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -21977,7 +22001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -22018,7 +22042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -22059,7 +22083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>27</v>
       </c>
@@ -22100,7 +22124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -22141,7 +22165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -22182,7 +22206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -22223,7 +22247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -22264,7 +22288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -22305,7 +22329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -22346,7 +22370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -22387,7 +22411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -22428,7 +22452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -22469,7 +22493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -22510,7 +22534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -22551,7 +22575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -22592,7 +22616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -22633,7 +22657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -22674,7 +22698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -22715,7 +22739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -22756,7 +22780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -22797,7 +22821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -22838,7 +22862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -22879,7 +22903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>27</v>
       </c>
@@ -22920,7 +22944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>27</v>
       </c>
@@ -22961,7 +22985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>27</v>
       </c>
@@ -23002,7 +23026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>27</v>
       </c>
@@ -23043,7 +23067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -23084,7 +23108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>27</v>
       </c>
@@ -23125,7 +23149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -23166,7 +23190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>27</v>
       </c>
@@ -23207,7 +23231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>27</v>
       </c>
@@ -23248,7 +23272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>27</v>
       </c>
@@ -23289,7 +23313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -23330,7 +23354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -23371,7 +23395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>27</v>
       </c>
@@ -23412,7 +23436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -23453,7 +23477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>27</v>
       </c>
@@ -23494,7 +23518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>27</v>
       </c>
@@ -23535,7 +23559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>27</v>
       </c>
@@ -23576,7 +23600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>27</v>
       </c>
@@ -23617,7 +23641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>27</v>
       </c>
@@ -23658,7 +23682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>27</v>
       </c>
@@ -23699,7 +23723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -23740,7 +23764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>27</v>
       </c>
@@ -23781,7 +23805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -23822,7 +23846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>27</v>
       </c>
@@ -23863,7 +23887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -23904,7 +23928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>27</v>
       </c>
@@ -23945,7 +23969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -23986,7 +24010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>27</v>
       </c>
@@ -24027,7 +24051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -24068,7 +24092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>27</v>
       </c>
@@ -24109,7 +24133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>27</v>
       </c>
@@ -24150,7 +24174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>27</v>
       </c>
@@ -24191,7 +24215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>27</v>
       </c>
@@ -24232,7 +24256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -24273,7 +24297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -24314,7 +24338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -24355,7 +24379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>27</v>
       </c>
@@ -24396,7 +24420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>27</v>
       </c>
@@ -24437,7 +24461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>27</v>
       </c>
@@ -24478,7 +24502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -24519,7 +24543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -24560,7 +24584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>27</v>
       </c>
@@ -24601,7 +24625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>27</v>
       </c>
@@ -24642,7 +24666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -24683,7 +24707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -24724,7 +24748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>27</v>
       </c>
@@ -24765,7 +24789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>27</v>
       </c>
@@ -24806,7 +24830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>27</v>
       </c>
@@ -24847,7 +24871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>27</v>
       </c>
@@ -24888,7 +24912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>27</v>
       </c>
@@ -24929,7 +24953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -24970,7 +24994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -25011,7 +25035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -25052,7 +25076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -25093,7 +25117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -25134,7 +25158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -25175,7 +25199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -25216,7 +25240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -25257,7 +25281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -25298,7 +25322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -25339,7 +25363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -25380,7 +25404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>27</v>
       </c>
@@ -25421,7 +25445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -25462,7 +25486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -25503,7 +25527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -25544,7 +25568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -25585,7 +25609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -25626,7 +25650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -25667,7 +25691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -25708,7 +25732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -25749,7 +25773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -25790,7 +25814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -25831,7 +25855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -25872,7 +25896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -25913,7 +25937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -25954,7 +25978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -25995,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -26036,7 +26060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -26077,7 +26101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -26118,7 +26142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -26159,7 +26183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -26200,7 +26224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -26241,7 +26265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>27</v>
       </c>
@@ -26282,7 +26306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>27</v>
       </c>
@@ -26323,7 +26347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -26364,7 +26388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -26405,7 +26429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>27</v>
       </c>
@@ -26446,7 +26470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -26487,7 +26511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>27</v>
       </c>
@@ -26528,7 +26552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -26569,7 +26593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>27</v>
       </c>
@@ -26610,7 +26634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>27</v>
       </c>
@@ -26651,7 +26675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>27</v>
       </c>
@@ -26692,7 +26716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>27</v>
       </c>
@@ -26733,7 +26757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>27</v>
       </c>
@@ -26774,7 +26798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>27</v>
       </c>
@@ -26815,7 +26839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>27</v>
       </c>
@@ -26856,7 +26880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>27</v>
       </c>
@@ -26897,7 +26921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -26938,7 +26962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>27</v>
       </c>
@@ -26979,7 +27003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>27</v>
       </c>
@@ -27020,7 +27044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>27</v>
       </c>
@@ -27061,7 +27085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>27</v>
       </c>
@@ -27102,7 +27126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -27143,7 +27167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -27184,7 +27208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>27</v>
       </c>
@@ -27225,7 +27249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>27</v>
       </c>
@@ -27266,7 +27290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -27307,7 +27331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -27348,7 +27372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>27</v>
       </c>
@@ -27389,7 +27413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -27430,7 +27454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -27471,7 +27495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>27</v>
       </c>
@@ -27512,7 +27536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -27553,7 +27577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -27594,7 +27618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -27635,7 +27659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -27676,7 +27700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -27717,7 +27741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -27758,7 +27782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -27799,7 +27823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -27840,7 +27864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -27881,7 +27905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -27922,7 +27946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -27963,7 +27987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -28004,7 +28028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -28045,7 +28069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -28086,7 +28110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>27</v>
       </c>
@@ -28127,7 +28151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>27</v>
       </c>
@@ -28168,7 +28192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>27</v>
       </c>
@@ -28209,7 +28233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>27</v>
       </c>
@@ -28250,7 +28274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>27</v>
       </c>
@@ -28291,7 +28315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>27</v>
       </c>
@@ -28332,7 +28356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -28373,7 +28397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>27</v>
       </c>
@@ -28414,7 +28438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>27</v>
       </c>
@@ -28455,7 +28479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>27</v>
       </c>
@@ -28496,7 +28520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -28537,7 +28561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>27</v>
       </c>
@@ -28578,7 +28602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>27</v>
       </c>
@@ -28619,7 +28643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>27</v>
       </c>
@@ -28660,7 +28684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -28701,7 +28725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -28742,7 +28766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>27</v>
       </c>
@@ -28783,7 +28807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -28824,7 +28848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>27</v>
       </c>
@@ -28865,7 +28889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>27</v>
       </c>
@@ -28906,7 +28930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>27</v>
       </c>
@@ -28947,7 +28971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>27</v>
       </c>
@@ -28988,7 +29012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>27</v>
       </c>
@@ -29029,7 +29053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>27</v>
       </c>
@@ -29070,7 +29094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>27</v>
       </c>
@@ -29111,7 +29135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>27</v>
       </c>
@@ -29152,7 +29176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -29193,7 +29217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>27</v>
       </c>
@@ -29234,7 +29258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>27</v>
       </c>
@@ -29275,7 +29299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -29316,7 +29340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>27</v>
       </c>
@@ -29357,7 +29381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>27</v>
       </c>
@@ -29398,7 +29422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>27</v>
       </c>
@@ -29439,7 +29463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>27</v>
       </c>
@@ -29480,7 +29504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -29521,7 +29545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -29562,7 +29586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -29603,7 +29627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -29644,7 +29668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>27</v>
       </c>
@@ -29685,7 +29709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>27</v>
       </c>
@@ -29726,7 +29750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>27</v>
       </c>
@@ -29767,7 +29791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>27</v>
       </c>
@@ -29808,7 +29832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -29849,7 +29873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>27</v>
       </c>
@@ -29890,7 +29914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -29931,7 +29955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>27</v>
       </c>
@@ -29972,7 +29996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>27</v>
       </c>
@@ -30013,7 +30037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -30054,7 +30078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -30095,7 +30119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>27</v>
       </c>
@@ -30136,7 +30160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>27</v>
       </c>
@@ -30177,7 +30201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>27</v>
       </c>
@@ -30218,7 +30242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -30259,7 +30283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>27</v>
       </c>
@@ -30300,7 +30324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>27</v>
       </c>
@@ -30341,7 +30365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>27</v>
       </c>
@@ -30382,7 +30406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -30423,7 +30447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -30464,7 +30488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>27</v>
       </c>
@@ -30505,7 +30529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>27</v>
       </c>
@@ -30546,7 +30570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>27</v>
       </c>
@@ -30587,7 +30611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>27</v>
       </c>
@@ -30628,7 +30652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>27</v>
       </c>
@@ -30669,7 +30693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>27</v>
       </c>
@@ -30710,7 +30734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>27</v>
       </c>
@@ -30751,7 +30775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -30792,7 +30816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>27</v>
       </c>
@@ -30833,7 +30857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>27</v>
       </c>
@@ -30874,7 +30898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>27</v>
       </c>
@@ -30915,7 +30939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>27</v>
       </c>
@@ -30956,7 +30980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>27</v>
       </c>
@@ -30997,7 +31021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>27</v>
       </c>
@@ -31038,7 +31062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>27</v>
       </c>
@@ -31079,7 +31103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>27</v>
       </c>
@@ -31120,7 +31144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>27</v>
       </c>
@@ -31161,7 +31185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>27</v>
       </c>
@@ -31202,7 +31226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>27</v>
       </c>
@@ -31243,7 +31267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>27</v>
       </c>
@@ -31284,7 +31308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>27</v>
       </c>
@@ -31325,7 +31349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>27</v>
       </c>
@@ -31366,7 +31390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>27</v>
       </c>
@@ -31407,7 +31431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>27</v>
       </c>
@@ -31448,7 +31472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>27</v>
       </c>
@@ -31489,7 +31513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -31530,7 +31554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -31571,7 +31595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>27</v>
       </c>
@@ -31612,7 +31636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>27</v>
       </c>
@@ -31653,7 +31677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>27</v>
       </c>
@@ -31694,7 +31718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>27</v>
       </c>
@@ -31735,7 +31759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -31776,7 +31800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>27</v>
       </c>
@@ -31817,7 +31841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>27</v>
       </c>
@@ -31858,7 +31882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -31899,7 +31923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>27</v>
       </c>
@@ -31940,7 +31964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -31981,7 +32005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -32022,7 +32046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>27</v>
       </c>
@@ -32063,7 +32087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -32104,7 +32128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>27</v>
       </c>
@@ -32145,7 +32169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>27</v>
       </c>
@@ -32186,7 +32210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>27</v>
       </c>
@@ -32227,7 +32251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -32268,7 +32292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>27</v>
       </c>
@@ -32309,7 +32333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -32350,7 +32374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>27</v>
       </c>
@@ -32391,7 +32415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -32432,7 +32456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>27</v>
       </c>
@@ -32473,7 +32497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>27</v>
       </c>
@@ -32514,7 +32538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>27</v>
       </c>
@@ -32555,7 +32579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>27</v>
       </c>
@@ -32596,7 +32620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>27</v>
       </c>
@@ -32637,7 +32661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>27</v>
       </c>
@@ -32678,7 +32702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>27</v>
       </c>
@@ -32719,7 +32743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>27</v>
       </c>
@@ -32760,7 +32784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>27</v>
       </c>
@@ -32801,7 +32825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>27</v>
       </c>
@@ -32842,7 +32866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>27</v>
       </c>
@@ -32883,7 +32907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>27</v>
       </c>
@@ -32924,7 +32948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>27</v>
       </c>
@@ -32965,7 +32989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>27</v>
       </c>
@@ -33006,7 +33030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>27</v>
       </c>
@@ -33047,7 +33071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>27</v>
       </c>
@@ -33088,7 +33112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>27</v>
       </c>
@@ -33129,7 +33153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>27</v>
       </c>
@@ -33170,7 +33194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>27</v>
       </c>
@@ -33211,7 +33235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>27</v>
       </c>
@@ -33252,7 +33276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>27</v>
       </c>
@@ -33293,7 +33317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>27</v>
       </c>
@@ -33334,7 +33358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>27</v>
       </c>
@@ -33375,7 +33399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>27</v>
       </c>
@@ -33416,7 +33440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>27</v>
       </c>
@@ -33457,7 +33481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -33498,7 +33522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>27</v>
       </c>
@@ -33539,7 +33563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>27</v>
       </c>
@@ -33580,7 +33604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>27</v>
       </c>
@@ -33621,7 +33645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>27</v>
       </c>
@@ -33662,7 +33686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>27</v>
       </c>
@@ -33703,7 +33727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>27</v>
       </c>
@@ -33744,7 +33768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>27</v>
       </c>
@@ -33785,7 +33809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>27</v>
       </c>
@@ -33826,7 +33850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>27</v>
       </c>
@@ -33867,7 +33891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>27</v>
       </c>
@@ -33908,7 +33932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>27</v>
       </c>
@@ -33949,7 +33973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>27</v>
       </c>
@@ -33990,7 +34014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>27</v>
       </c>
@@ -34031,7 +34055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>27</v>
       </c>
@@ -34072,7 +34096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>27</v>
       </c>
@@ -34113,7 +34137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>27</v>
       </c>
@@ -34154,7 +34178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>27</v>
       </c>
@@ -34195,7 +34219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>27</v>
       </c>
@@ -34236,7 +34260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>27</v>
       </c>
@@ -34277,7 +34301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>27</v>
       </c>
@@ -34318,7 +34342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>27</v>
       </c>
@@ -34359,7 +34383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>27</v>
       </c>
@@ -34400,7 +34424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>27</v>
       </c>
@@ -34441,7 +34465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>27</v>
       </c>
@@ -34482,7 +34506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>27</v>
       </c>
@@ -34523,7 +34547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>27</v>
       </c>
@@ -34564,7 +34588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>27</v>
       </c>
@@ -34605,7 +34629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>27</v>
       </c>
@@ -34646,7 +34670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>27</v>
       </c>
@@ -34687,7 +34711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -34728,7 +34752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>27</v>
       </c>
@@ -34769,7 +34793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -34810,7 +34834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>27</v>
       </c>
@@ -34851,7 +34875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>27</v>
       </c>
@@ -34892,7 +34916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>27</v>
       </c>
@@ -34933,7 +34957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>27</v>
       </c>
@@ -34974,7 +34998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>27</v>
       </c>
@@ -35015,7 +35039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>27</v>
       </c>
@@ -35056,7 +35080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>27</v>
       </c>
@@ -35097,7 +35121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>27</v>
       </c>
@@ -35138,7 +35162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>27</v>
       </c>
@@ -35179,7 +35203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>27</v>
       </c>
@@ -35220,7 +35244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>27</v>
       </c>
@@ -35261,7 +35285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>27</v>
       </c>
@@ -35302,7 +35326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>27</v>
       </c>
@@ -35343,7 +35367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>27</v>
       </c>
@@ -35384,7 +35408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>27</v>
       </c>
@@ -35425,7 +35449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>27</v>
       </c>
@@ -35466,7 +35490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>27</v>
       </c>
@@ -35507,7 +35531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>27</v>
       </c>
@@ -35548,7 +35572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>27</v>
       </c>
@@ -35589,7 +35613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>27</v>
       </c>
@@ -35630,7 +35654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>27</v>
       </c>
@@ -35671,7 +35695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>27</v>
       </c>
@@ -35712,7 +35736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>27</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW1/hw_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1085D085-76F7-44CC-822A-2E22C03543FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F518D9-3639-4AD0-8DE9-56EFB5162284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題" sheetId="1" r:id="rId1"/>
@@ -14606,8 +14606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E243DFA7-D457-48F2-8F9C-FADDB29EE60F}">
   <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
